--- a/Test Report/suggestion_test_report.xlsx
+++ b/Test Report/suggestion_test_report.xlsx
@@ -28,21 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>Date and Time of Test Run</t>
-  </si>
-  <si>
-    <t>Environment Description</t>
-  </si>
-  <si>
-    <t>Include SW and HW platforms you are testing with</t>
-  </si>
-  <si>
-    <t>SW Version</t>
-  </si>
-  <si>
-    <t>Version of SW you are testing with</t>
-  </si>
   <si>
     <t>Notes</t>
   </si>
@@ -182,6 +167,21 @@
   </si>
   <si>
     <t>suggestionVC.swift detialpage.swift</t>
+  </si>
+  <si>
+    <t>12,Dec 5:55 pm</t>
+  </si>
+  <si>
+    <t>macOS 10.12.6</t>
+  </si>
+  <si>
+    <t>Xcode 9</t>
+  </si>
+  <si>
+    <t>Xcode iPhone 6</t>
+  </si>
+  <si>
+    <t>iOS 11.1</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -556,7 +556,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -586,12 +586,12 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -618,12 +618,12 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -708,28 +708,28 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -752,26 +752,26 @@
     </row>
     <row r="7" spans="1:26" ht="65" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -797,25 +797,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -841,25 +841,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -885,25 +885,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -929,25 +929,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -973,25 +973,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
